--- a/biology/Botanique/Paraphysomonadaceae/Paraphysomonadaceae.xlsx
+++ b/biology/Botanique/Paraphysomonadaceae/Paraphysomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Paraphysomonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Paraphysomonadales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Paraphysomonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Paraphysomonadales.
 Les espèces de cette famille sont communes à la fois dans le plancton d'eau douce et marin.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Paraphysomonas, construit avec la préfixe para-, «  à côté de », et du suffixe -physomonas, allusion au genre Physomonas, littéralement « sorte de Physomonas ». Ce genre fut étudié en 1930 par De Saedeleer[2] en référence à l'espèce Physomonas socialis (Ehrenberg) Kent, décrite en 1880[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Paraphysomonas, construit avec la préfixe para-, «  à côté de », et du suffixe -physomonas, allusion au genre Physomonas, littéralement « sorte de Physomonas ». Ce genre fut étudié en 1930 par De Saedeleer en référence à l'espèce Physomonas socialis (Ehrenberg) Kent, décrite en 1880.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Paraphysomonas se présentent sous l'aspect de cellules incolores, solitaires, de forme sphérique à légèrement ovale ou allongée, couvertes d'écailles ou d'épines siliceuses et portant à l'extrémité antérieure 2 flagelles de longueur inégale. Ce sont généralement des cellules nageant librement, mais elles se peuvent aussi s'attacher à des tapis bactériens ou à d'autres surfaces, formant parfois une tige à l'extrémité postérieure de la cellule[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Paraphysomonas se présentent sous l'aspect de cellules incolores, solitaires, de forme sphérique à légèrement ovale ou allongée, couvertes d'écailles ou d'épines siliceuses et portant à l'extrémité antérieure 2 flagelles de longueur inégale. Ce sont généralement des cellules nageant librement, mais elles se peuvent aussi s'attacher à des tapis bactériens ou à d'autres surfaces, formant parfois une tige à l'extrémité postérieure de la cellule. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (27 janvier 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (27 janvier 2022) :
 Actinoglena O.Zacharias, 1897
 Chromophysomonas Preisig &amp; D.J.Hibberd, 1982
 Paraphysomonas De Saedeleer, 1930
